--- a/tracker/stats.xlsx
+++ b/tracker/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giant\Projects\pomelo-disease-classification\tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF16D57E-4BAD-42FD-844A-2A528C59E93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2469ACC-6D06-451C-9FFF-8F1AB3FFF124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -5093,8 +5093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1562"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6296,7 +6296,7 @@
         <v>1421</v>
       </c>
       <c r="C144" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -6304,7 +6304,7 @@
         <v>1420</v>
       </c>
       <c r="C145" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -6312,7 +6312,7 @@
         <v>1419</v>
       </c>
       <c r="C146" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -6320,7 +6320,7 @@
         <v>1418</v>
       </c>
       <c r="C147" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -6328,7 +6328,7 @@
         <v>1417</v>
       </c>
       <c r="C148" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -6336,7 +6336,7 @@
         <v>1416</v>
       </c>
       <c r="C149" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -6344,7 +6344,7 @@
         <v>1415</v>
       </c>
       <c r="C150" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -6352,7 +6352,7 @@
         <v>1414</v>
       </c>
       <c r="C151" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -6360,7 +6360,7 @@
         <v>1413</v>
       </c>
       <c r="C152" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -6368,7 +6368,7 @@
         <v>1412</v>
       </c>
       <c r="C153" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -6376,7 +6376,7 @@
         <v>1411</v>
       </c>
       <c r="C154" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -6384,7 +6384,7 @@
         <v>1410</v>
       </c>
       <c r="C155" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -6392,7 +6392,7 @@
         <v>1409</v>
       </c>
       <c r="C156" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -6400,7 +6400,7 @@
         <v>1408</v>
       </c>
       <c r="C157" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -6408,7 +6408,7 @@
         <v>1407</v>
       </c>
       <c r="C158" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -6416,7 +6416,7 @@
         <v>1406</v>
       </c>
       <c r="C159" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -6424,7 +6424,7 @@
         <v>1405</v>
       </c>
       <c r="C160" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -6432,7 +6432,7 @@
         <v>1404</v>
       </c>
       <c r="C161" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -6440,7 +6440,7 @@
         <v>1403</v>
       </c>
       <c r="C162" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -6448,7 +6448,7 @@
         <v>1402</v>
       </c>
       <c r="C163" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -6456,7 +6456,7 @@
         <v>1401</v>
       </c>
       <c r="C164" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -6464,7 +6464,7 @@
         <v>1400</v>
       </c>
       <c r="C165" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -6472,7 +6472,7 @@
         <v>1399</v>
       </c>
       <c r="C166" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -6480,7 +6480,7 @@
         <v>1398</v>
       </c>
       <c r="C167" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -6488,7 +6488,7 @@
         <v>1397</v>
       </c>
       <c r="C168" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -6496,7 +6496,7 @@
         <v>1396</v>
       </c>
       <c r="C169" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -6504,7 +6504,7 @@
         <v>1395</v>
       </c>
       <c r="C170" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -6512,7 +6512,7 @@
         <v>1394</v>
       </c>
       <c r="C171" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -6520,7 +6520,7 @@
         <v>1393</v>
       </c>
       <c r="C172" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -6528,7 +6528,7 @@
         <v>1392</v>
       </c>
       <c r="C173" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -18162,8 +18162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADADFF10-A75D-4336-934E-94B9D3B571F7}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="E2">
         <f>COUNTIF(Raw!C:C,D2)</f>
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -18207,7 +18207,7 @@
       </c>
       <c r="E3">
         <f>COUNTIF(Raw!C:C,D3)</f>
-        <v>1444</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -18223,7 +18223,7 @@
       </c>
       <c r="E4">
         <f>COUNTIF(Raw!C:C,D4)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">

--- a/tracker/stats.xlsx
+++ b/tracker/stats.xlsx
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -16815,7 +16815,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D817" t="inlineStr"/>
@@ -16855,7 +16855,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D819" t="inlineStr"/>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D820" t="inlineStr"/>
@@ -16895,7 +16895,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D821" t="inlineStr"/>
@@ -16915,7 +16915,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D822" t="inlineStr"/>
@@ -16935,7 +16935,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D823" t="inlineStr"/>
@@ -16955,7 +16955,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D824" t="inlineStr"/>
@@ -16975,7 +16975,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D825" t="inlineStr"/>
@@ -16995,7 +16995,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D826" t="inlineStr"/>
@@ -17015,7 +17015,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D827" t="inlineStr"/>
@@ -17035,7 +17035,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D828" t="inlineStr"/>
@@ -17055,7 +17055,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D829" t="inlineStr"/>
@@ -17075,7 +17075,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D830" t="inlineStr"/>
@@ -17095,7 +17095,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D831" t="inlineStr"/>
@@ -17115,7 +17115,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D832" t="inlineStr"/>
@@ -17155,7 +17155,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D834" t="inlineStr"/>
@@ -17175,7 +17175,7 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D835" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D837" t="inlineStr"/>
@@ -17255,7 +17255,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D839" t="inlineStr"/>
@@ -17315,7 +17315,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D842" t="inlineStr"/>
@@ -17475,7 +17475,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D850" t="inlineStr"/>
@@ -17495,7 +17495,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D851" t="inlineStr"/>
@@ -17515,7 +17515,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D852" t="inlineStr"/>
@@ -17535,7 +17535,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D853" t="inlineStr"/>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D854" t="inlineStr"/>
@@ -17575,7 +17575,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D855" t="inlineStr"/>
@@ -17695,7 +17695,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D861" t="inlineStr"/>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D862" t="inlineStr"/>
@@ -17735,7 +17735,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D863" t="inlineStr"/>
@@ -17755,7 +17755,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D864" t="inlineStr"/>
@@ -17775,7 +17775,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D865" t="inlineStr"/>
@@ -17795,7 +17795,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D866" t="inlineStr"/>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D867" t="inlineStr"/>
@@ -17835,7 +17835,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D868" t="inlineStr"/>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D869" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D870" t="inlineStr"/>
@@ -17895,7 +17895,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D871" t="inlineStr"/>
@@ -17915,7 +17915,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D872" t="inlineStr"/>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D873" t="inlineStr"/>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D874" t="inlineStr"/>
@@ -17975,7 +17975,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D875" t="inlineStr"/>
@@ -17995,7 +17995,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D876" t="inlineStr"/>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D877" t="inlineStr"/>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D878" t="inlineStr"/>
@@ -18055,7 +18055,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D879" t="inlineStr"/>
@@ -18075,7 +18075,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D880" t="inlineStr"/>
@@ -18095,7 +18095,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D881" t="inlineStr"/>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D882" t="inlineStr"/>
@@ -18135,7 +18135,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D883" t="inlineStr"/>
@@ -18155,7 +18155,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D884" t="inlineStr"/>
@@ -18175,7 +18175,7 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D885" t="inlineStr"/>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D886" t="inlineStr"/>
@@ -18215,7 +18215,7 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D887" t="inlineStr"/>
@@ -18235,7 +18235,7 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D888" t="inlineStr"/>
@@ -18255,7 +18255,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D889" t="inlineStr"/>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D890" t="inlineStr"/>
@@ -18295,7 +18295,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D891" t="inlineStr"/>
@@ -18315,7 +18315,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D892" t="inlineStr"/>
@@ -18335,7 +18335,7 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D893" t="inlineStr"/>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D894" t="inlineStr"/>
@@ -18375,7 +18375,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Incorrect</t>
         </is>
       </c>
       <c r="D895" t="inlineStr"/>
@@ -18395,7 +18395,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
@@ -18415,7 +18415,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D897" t="inlineStr"/>
@@ -18435,7 +18435,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D898" t="inlineStr"/>
@@ -18455,7 +18455,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
@@ -18475,7 +18475,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
@@ -18495,7 +18495,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D901" t="inlineStr"/>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D903" t="inlineStr"/>
@@ -18555,7 +18555,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
@@ -18635,7 +18635,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
@@ -18655,7 +18655,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
@@ -18695,7 +18695,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
@@ -18715,7 +18715,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
@@ -18735,7 +18735,7 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
@@ -18775,7 +18775,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
@@ -18795,7 +18795,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
@@ -18815,7 +18815,7 @@
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
@@ -18835,7 +18835,7 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
@@ -18855,7 +18855,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
@@ -18875,7 +18875,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
@@ -18895,7 +18895,7 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
@@ -18935,7 +18935,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
@@ -18955,7 +18955,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
@@ -18975,7 +18975,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
@@ -19015,7 +19015,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
@@ -19035,7 +19035,7 @@
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
@@ -19055,7 +19055,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
@@ -19095,7 +19095,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
@@ -19115,7 +19115,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
@@ -19135,7 +19135,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
@@ -19155,7 +19155,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
@@ -19175,7 +19175,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D935" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
@@ -19255,7 +19255,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
@@ -19275,7 +19275,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
@@ -19295,7 +19295,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
@@ -19315,7 +19315,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
@@ -19335,7 +19335,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
@@ -19375,7 +19375,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
@@ -19395,7 +19395,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
@@ -19415,7 +19415,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
@@ -19435,7 +19435,7 @@
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
@@ -19455,7 +19455,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
@@ -19475,7 +19475,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>

--- a/tracker/stats.xlsx
+++ b/tracker/stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1562"/>
+  <dimension ref="A1:F1561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
@@ -18375,7 +18375,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Incorrect</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D895" t="inlineStr"/>
@@ -19495,7 +19495,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
@@ -19515,7 +19515,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
@@ -19535,7 +19535,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
@@ -19575,7 +19575,7 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
@@ -19595,7 +19595,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
@@ -19615,7 +19615,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
@@ -19655,7 +19655,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
@@ -19675,7 +19675,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
@@ -19695,7 +19695,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
@@ -19715,7 +19715,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
@@ -19735,7 +19735,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
@@ -19755,7 +19755,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D964" t="inlineStr"/>
@@ -19775,7 +19775,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
@@ -19795,7 +19795,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
@@ -19815,7 +19815,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
@@ -19835,7 +19835,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
@@ -19895,7 +19895,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D973" t="inlineStr"/>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
@@ -19975,7 +19975,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
@@ -19995,7 +19995,7 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
@@ -20015,7 +20015,7 @@
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
@@ -20035,7 +20035,7 @@
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
@@ -20055,7 +20055,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
@@ -20075,7 +20075,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
@@ -20095,7 +20095,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
@@ -20135,7 +20135,7 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D983" t="inlineStr"/>
@@ -20155,7 +20155,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D984" t="inlineStr"/>
@@ -20175,7 +20175,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D985" t="inlineStr"/>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D986" t="inlineStr"/>
@@ -20215,7 +20215,7 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D987" t="inlineStr"/>
@@ -20235,7 +20235,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D988" t="inlineStr"/>
@@ -20255,7 +20255,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D989" t="inlineStr"/>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D990" t="inlineStr"/>
@@ -20295,7 +20295,7 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D991" t="inlineStr"/>
@@ -20315,7 +20315,7 @@
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D992" t="inlineStr"/>
@@ -20335,7 +20335,7 @@
       </c>
       <c r="C993" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D993" t="inlineStr"/>
@@ -20355,7 +20355,7 @@
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D994" t="inlineStr"/>
@@ -20375,7 +20375,7 @@
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D995" t="inlineStr"/>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D996" t="inlineStr"/>
@@ -20415,7 +20415,7 @@
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D997" t="inlineStr"/>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D998" t="inlineStr"/>
@@ -20455,7 +20455,7 @@
       </c>
       <c r="C999" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D999" t="inlineStr"/>
@@ -20475,7 +20475,7 @@
       </c>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1000" t="inlineStr"/>
@@ -20495,7 +20495,7 @@
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1001" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
       </c>
       <c r="C1002" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D1002" t="inlineStr"/>
@@ -20535,7 +20535,7 @@
       </c>
       <c r="C1003" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D1003" t="inlineStr"/>
@@ -20555,7 +20555,7 @@
       </c>
       <c r="C1004" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1004" t="inlineStr"/>
@@ -20575,7 +20575,7 @@
       </c>
       <c r="C1005" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1005" t="inlineStr"/>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="C1006" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1006" t="inlineStr"/>
@@ -20615,7 +20615,7 @@
       </c>
       <c r="C1007" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1007" t="inlineStr"/>
@@ -20635,7 +20635,7 @@
       </c>
       <c r="C1008" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1008" t="inlineStr"/>
@@ -20655,7 +20655,7 @@
       </c>
       <c r="C1009" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1009" t="inlineStr"/>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="C1010" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1010" t="inlineStr"/>
@@ -20695,7 +20695,7 @@
       </c>
       <c r="C1011" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1011" t="inlineStr"/>
@@ -20715,7 +20715,7 @@
       </c>
       <c r="C1012" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1012" t="inlineStr"/>
@@ -20735,7 +20735,7 @@
       </c>
       <c r="C1013" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1013" t="inlineStr"/>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="C1014" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1014" t="inlineStr"/>
@@ -20775,7 +20775,7 @@
       </c>
       <c r="C1015" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1015" t="inlineStr"/>
@@ -20795,7 +20795,7 @@
       </c>
       <c r="C1016" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1016" t="inlineStr"/>
@@ -20815,7 +20815,7 @@
       </c>
       <c r="C1017" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1017" t="inlineStr"/>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="C1018" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1018" t="inlineStr"/>
@@ -20855,7 +20855,7 @@
       </c>
       <c r="C1019" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1019" t="inlineStr"/>
@@ -20875,7 +20875,7 @@
       </c>
       <c r="C1020" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1020" t="inlineStr"/>
@@ -20895,7 +20895,7 @@
       </c>
       <c r="C1021" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1021" t="inlineStr"/>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="C1022" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1022" t="inlineStr"/>
@@ -20935,7 +20935,7 @@
       </c>
       <c r="C1023" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1023" t="inlineStr"/>
@@ -20955,7 +20955,7 @@
       </c>
       <c r="C1024" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1024" t="inlineStr"/>
@@ -20975,7 +20975,7 @@
       </c>
       <c r="C1025" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1025" t="inlineStr"/>
@@ -20995,7 +20995,7 @@
       </c>
       <c r="C1026" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D1026" t="inlineStr"/>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="C1030" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1030" t="inlineStr"/>
@@ -21095,7 +21095,7 @@
       </c>
       <c r="C1031" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1031" t="inlineStr"/>
@@ -21115,7 +21115,7 @@
       </c>
       <c r="C1032" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1032" t="inlineStr"/>
@@ -21135,7 +21135,7 @@
       </c>
       <c r="C1033" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1033" t="inlineStr"/>
@@ -21295,7 +21295,7 @@
       </c>
       <c r="C1041" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1041" t="inlineStr"/>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="C1042" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1042" t="inlineStr"/>
@@ -21335,7 +21335,7 @@
       </c>
       <c r="C1043" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1043" t="inlineStr"/>
@@ -21355,7 +21355,7 @@
       </c>
       <c r="C1044" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1044" t="inlineStr"/>
@@ -21375,7 +21375,7 @@
       </c>
       <c r="C1045" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1045" t="inlineStr"/>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="C1046" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1046" t="inlineStr"/>
@@ -21415,7 +21415,7 @@
       </c>
       <c r="C1047" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1047" t="inlineStr"/>
@@ -21435,7 +21435,7 @@
       </c>
       <c r="C1048" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1048" t="inlineStr"/>
@@ -21455,7 +21455,7 @@
       </c>
       <c r="C1049" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1049" t="inlineStr"/>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="C1050" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1050" t="inlineStr"/>
@@ -21495,7 +21495,7 @@
       </c>
       <c r="C1051" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1051" t="inlineStr"/>
@@ -21515,7 +21515,7 @@
       </c>
       <c r="C1052" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1052" t="inlineStr"/>
@@ -21535,7 +21535,7 @@
       </c>
       <c r="C1053" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1053" t="inlineStr"/>
@@ -21555,7 +21555,7 @@
       </c>
       <c r="C1054" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1054" t="inlineStr"/>
@@ -21575,7 +21575,7 @@
       </c>
       <c r="C1055" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1055" t="inlineStr"/>
@@ -21595,7 +21595,7 @@
       </c>
       <c r="C1056" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1056" t="inlineStr"/>
@@ -21615,7 +21615,7 @@
       </c>
       <c r="C1057" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1057" t="inlineStr"/>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="C1058" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1058" t="inlineStr"/>
@@ -21655,7 +21655,7 @@
       </c>
       <c r="C1059" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1059" t="inlineStr"/>
@@ -21675,7 +21675,7 @@
       </c>
       <c r="C1060" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1060" t="inlineStr"/>
@@ -21695,7 +21695,7 @@
       </c>
       <c r="C1061" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1061" t="inlineStr"/>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="C1062" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1062" t="inlineStr"/>
@@ -21735,7 +21735,7 @@
       </c>
       <c r="C1063" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1063" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1068" t="inlineStr"/>
@@ -21855,7 +21855,7 @@
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1069" t="inlineStr"/>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="C1070" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1070" t="inlineStr"/>
@@ -21895,7 +21895,7 @@
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1071" t="inlineStr"/>
@@ -21915,7 +21915,7 @@
       </c>
       <c r="C1072" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1072" t="inlineStr"/>
@@ -21935,7 +21935,7 @@
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1073" t="inlineStr"/>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="C1074" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1074" t="inlineStr"/>
@@ -21975,7 +21975,7 @@
       </c>
       <c r="C1075" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1075" t="inlineStr"/>
@@ -21995,7 +21995,7 @@
       </c>
       <c r="C1076" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1076" t="inlineStr"/>
@@ -22015,7 +22015,7 @@
       </c>
       <c r="C1077" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1077" t="inlineStr"/>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="C1078" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1078" t="inlineStr"/>
@@ -22095,7 +22095,7 @@
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1081" t="inlineStr"/>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="C1082" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1082" t="inlineStr"/>
@@ -22135,7 +22135,7 @@
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1083" t="inlineStr"/>
@@ -22155,7 +22155,7 @@
       </c>
       <c r="C1084" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1084" t="inlineStr"/>
@@ -22175,7 +22175,7 @@
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1085" t="inlineStr"/>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1086" t="inlineStr"/>
@@ -22215,7 +22215,7 @@
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1087" t="inlineStr"/>
@@ -22235,7 +22235,7 @@
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1088" t="inlineStr"/>
@@ -22255,7 +22255,7 @@
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1089" t="inlineStr"/>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="C1090" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1090" t="inlineStr"/>
@@ -22295,7 +22295,7 @@
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1091" t="inlineStr"/>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1092" t="inlineStr"/>
@@ -22335,7 +22335,7 @@
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1093" t="inlineStr"/>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1094" t="inlineStr"/>
@@ -22375,7 +22375,7 @@
       </c>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1095" t="inlineStr"/>
@@ -22395,7 +22395,7 @@
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1096" t="inlineStr"/>
@@ -22415,7 +22415,7 @@
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1097" t="inlineStr"/>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1098" t="inlineStr"/>
@@ -22455,7 +22455,7 @@
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1099" t="inlineStr"/>
@@ -22475,7 +22475,7 @@
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1100" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
       </c>
       <c r="C1101" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1101" t="inlineStr"/>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="C1102" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1102" t="inlineStr"/>
@@ -22535,7 +22535,7 @@
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1103" t="inlineStr"/>
@@ -22555,7 +22555,7 @@
       </c>
       <c r="C1104" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1104" t="inlineStr"/>
@@ -22575,7 +22575,7 @@
       </c>
       <c r="C1105" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1105" t="inlineStr"/>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="C1106" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1106" t="inlineStr"/>
@@ -22615,7 +22615,7 @@
       </c>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1107" t="inlineStr"/>
@@ -22635,7 +22635,7 @@
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1108" t="inlineStr"/>
@@ -22655,7 +22655,7 @@
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1109" t="inlineStr"/>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="C1110" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1110" t="inlineStr"/>
@@ -22695,7 +22695,7 @@
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1111" t="inlineStr"/>
@@ -22715,7 +22715,7 @@
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1112" t="inlineStr"/>
@@ -22735,7 +22735,7 @@
       </c>
       <c r="C1113" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1113" t="inlineStr"/>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1114" t="inlineStr"/>
@@ -22775,7 +22775,7 @@
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1115" t="inlineStr"/>
@@ -22795,7 +22795,7 @@
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1116" t="inlineStr"/>
@@ -22815,7 +22815,7 @@
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1117" t="inlineStr"/>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1118" t="inlineStr"/>
@@ -22855,7 +22855,7 @@
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1119" t="inlineStr"/>
@@ -22875,7 +22875,7 @@
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1120" t="inlineStr"/>
@@ -22895,7 +22895,7 @@
       </c>
       <c r="C1121" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1121" t="inlineStr"/>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1122" t="inlineStr"/>
@@ -22935,7 +22935,7 @@
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1123" t="inlineStr"/>
@@ -22955,7 +22955,7 @@
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1124" t="inlineStr"/>
@@ -22975,7 +22975,7 @@
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1125" t="inlineStr"/>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr"/>
@@ -23055,7 +23055,7 @@
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
@@ -23095,7 +23095,7 @@
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
@@ -23115,7 +23115,7 @@
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
@@ -23135,7 +23135,7 @@
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
@@ -23205,7 +23205,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>IMG20250802082352</t>
+          <t>IMG20250802082729</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
@@ -23215,7 +23215,7 @@
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
@@ -23225,7 +23225,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>IMG20250802082729</t>
+          <t>IMG20250802082754</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
@@ -23235,7 +23235,7 @@
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
@@ -23245,7 +23245,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>IMG20250802082754</t>
+          <t>IMG20250802082804</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
@@ -23255,7 +23255,7 @@
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
@@ -23265,7 +23265,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>IMG20250802082804</t>
+          <t>IMG20250802082811</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
@@ -23275,7 +23275,7 @@
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
@@ -23285,7 +23285,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>IMG20250802082811</t>
+          <t>IMG20250802082824</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
@@ -23295,7 +23295,7 @@
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
@@ -23305,7 +23305,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>IMG20250802082824</t>
+          <t>IMG20250802082833</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
@@ -23315,7 +23315,7 @@
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
@@ -23325,7 +23325,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>IMG20250802082833</t>
+          <t>IMG20250802082844</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
@@ -23335,7 +23335,7 @@
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
@@ -23345,7 +23345,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>IMG20250802082844</t>
+          <t>IMG20250802082909</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
@@ -23355,7 +23355,7 @@
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
@@ -23365,7 +23365,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>IMG20250802082909</t>
+          <t>IMG20250802082925</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
@@ -23375,7 +23375,7 @@
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
@@ -23385,7 +23385,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>IMG20250802082925</t>
+          <t>IMG20250802082931</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
@@ -23395,7 +23395,7 @@
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
@@ -23405,7 +23405,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>IMG20250802082931</t>
+          <t>IMG20250802082938</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
@@ -23415,7 +23415,7 @@
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
@@ -23425,7 +23425,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>IMG20250802082938</t>
+          <t>IMG20250802082951</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
@@ -23435,7 +23435,7 @@
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
@@ -23445,7 +23445,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>IMG20250802082951</t>
+          <t>IMG20250802082958</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
@@ -23455,7 +23455,7 @@
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
@@ -23465,7 +23465,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>IMG20250802082958</t>
+          <t>IMG20250802083005</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
@@ -23475,7 +23475,7 @@
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>IMG20250802083005</t>
+          <t>IMG20250802083014</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
@@ -23495,7 +23495,7 @@
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
@@ -23505,17 +23505,17 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>IMG20250802083014</t>
+          <t>IMG20250802083036</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Mites</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
@@ -23525,17 +23525,17 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>IMG20250802083036</t>
+          <t>IMG20250802083053</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Mites</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
@@ -23545,17 +23545,17 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>IMG20250802083053</t>
+          <t>IMG20250802083110</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Mites</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
@@ -23565,17 +23565,17 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>IMG20250802083110</t>
+          <t>IMG20250802083115</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Mites</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
@@ -23585,7 +23585,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>IMG20250802083115</t>
+          <t>IMG20250802083142</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
@@ -23595,7 +23595,7 @@
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
@@ -23605,7 +23605,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>IMG20250802083142</t>
+          <t>IMG20250802083154</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
@@ -23615,7 +23615,7 @@
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
@@ -23625,7 +23625,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>IMG20250802083154</t>
+          <t>IMG20250802083207</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
@@ -23635,7 +23635,7 @@
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
@@ -23645,7 +23645,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>IMG20250802083207</t>
+          <t>IMG20250802083232</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
@@ -23655,7 +23655,7 @@
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
@@ -23665,7 +23665,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>IMG20250802083232</t>
+          <t>IMG20250802083237</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
@@ -23675,7 +23675,7 @@
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
@@ -23685,7 +23685,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>IMG20250802083237</t>
+          <t>IMG20250802083244</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
@@ -23695,7 +23695,7 @@
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
@@ -23705,7 +23705,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>IMG20250802083244</t>
+          <t>IMG20250802083252</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
@@ -23715,7 +23715,7 @@
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
@@ -23725,7 +23725,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>IMG20250802083252</t>
+          <t>IMG20250802083302</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
@@ -23735,7 +23735,7 @@
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
@@ -23745,7 +23745,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>IMG20250802083302</t>
+          <t>IMG20250802083315</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
@@ -23755,7 +23755,7 @@
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
@@ -23765,7 +23765,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>IMG20250802083315</t>
+          <t>IMG20250802083358</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
@@ -23775,7 +23775,7 @@
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
@@ -23785,7 +23785,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>IMG20250802083358</t>
+          <t>IMG20250802083450</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
@@ -23795,7 +23795,7 @@
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
@@ -23805,7 +23805,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>IMG20250802083450</t>
+          <t>IMG20250802083455</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
@@ -23815,7 +23815,7 @@
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
@@ -23825,7 +23825,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>IMG20250802083455</t>
+          <t>IMG20250802083500</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
@@ -23835,7 +23835,7 @@
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
@@ -23845,17 +23845,17 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>IMG20250802083500</t>
+          <t>IMG20250802083509</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Mites</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
@@ -23865,7 +23865,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>IMG20250802083509</t>
+          <t>IMG20250802083512</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
@@ -23885,7 +23885,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>IMG20250802083512</t>
+          <t>IMG20250802083516</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
@@ -23905,17 +23905,17 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>IMG20250802083516</t>
+          <t>IMG20250802083537</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Mites</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
@@ -23925,17 +23925,17 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>IMG20250802083537</t>
+          <t>IMG20250802083541</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Mites</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
@@ -23945,17 +23945,17 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>IMG20250802083541</t>
+          <t>IMG20250802083554</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Mites</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
@@ -23965,7 +23965,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>IMG20250802083554</t>
+          <t>IMG20250802083559</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
@@ -23975,7 +23975,7 @@
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr"/>
@@ -23985,17 +23985,17 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>IMG20250802083559</t>
+          <t>IMG20250802083646</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Mites</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
@@ -24005,7 +24005,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>IMG20250802083646</t>
+          <t>IMG20250802083652</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
@@ -24025,7 +24025,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>IMG20250802083652</t>
+          <t>IMG20250802083656</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
@@ -24045,7 +24045,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>IMG20250802083656</t>
+          <t>IMG20250802083700</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
@@ -24065,7 +24065,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>IMG20250802083700</t>
+          <t>IMG20250802083704</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
@@ -24085,7 +24085,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>IMG20250802083704</t>
+          <t>IMG20250802083709</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
@@ -24105,17 +24105,17 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>IMG20250802083709</t>
+          <t>IMG20250802083814</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Mites</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
@@ -24125,7 +24125,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>IMG20250802083814</t>
+          <t>IMG20250802083829</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
@@ -24135,7 +24135,7 @@
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>IMG20250802083829</t>
+          <t>IMG20250802083856</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
@@ -24155,7 +24155,7 @@
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
@@ -24165,7 +24165,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>IMG20250802083856</t>
+          <t>IMG20250802083900</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
@@ -24175,7 +24175,7 @@
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
@@ -24185,7 +24185,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>IMG20250802083900</t>
+          <t>IMG20250802083919</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
@@ -24195,7 +24195,7 @@
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
@@ -24205,7 +24205,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>IMG20250802083919</t>
+          <t>IMG20250802083931</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
@@ -24215,7 +24215,7 @@
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
@@ -24225,7 +24225,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>IMG20250802083931</t>
+          <t>IMG20250802083939</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
@@ -24235,7 +24235,7 @@
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
@@ -24245,7 +24245,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>IMG20250802083939</t>
+          <t>IMG20250802084004</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
@@ -24255,7 +24255,7 @@
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
@@ -24265,7 +24265,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>IMG20250802084004</t>
+          <t>IMG20250802084009</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
@@ -24275,7 +24275,7 @@
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
@@ -24285,7 +24285,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>IMG20250802084009</t>
+          <t>IMG20250802084017</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
@@ -24295,7 +24295,7 @@
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
@@ -24305,7 +24305,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>IMG20250802084017</t>
+          <t>IMG20250802084024</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
@@ -24315,7 +24315,7 @@
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
@@ -24325,7 +24325,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>IMG20250802084024</t>
+          <t>IMG20250802084038</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
@@ -24335,7 +24335,7 @@
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
@@ -24345,7 +24345,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>IMG20250802084038</t>
+          <t>IMG20250802084048</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
@@ -24355,7 +24355,7 @@
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
@@ -24365,7 +24365,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>IMG20250802084048</t>
+          <t>IMG20250802084117</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
@@ -24375,7 +24375,7 @@
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
@@ -24385,17 +24385,17 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>IMG20250802084117</t>
+          <t>IMG20250802084203</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Mites</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
@@ -24405,7 +24405,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>IMG20250802084203</t>
+          <t>IMG20250802084207</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
@@ -24425,7 +24425,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>IMG20250802084207</t>
+          <t>IMG20250802084211</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
@@ -24445,7 +24445,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>IMG20250802084211</t>
+          <t>IMG20250802084216</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
@@ -24465,17 +24465,17 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>IMG20250802084216</t>
+          <t>IMG20250802084237</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Mites</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
@@ -24485,7 +24485,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>IMG20250802084237</t>
+          <t>IMG20250802084244</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
@@ -24495,7 +24495,7 @@
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
@@ -24505,7 +24505,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>IMG20250802084244</t>
+          <t>IMG20250802084249</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
@@ -24515,7 +24515,7 @@
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
@@ -24525,7 +24525,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>IMG20250802084249</t>
+          <t>IMG20250802084305</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
@@ -24535,7 +24535,7 @@
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
@@ -24545,17 +24545,17 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>IMG20250802084305</t>
+          <t>IMG20250802084416</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Mites</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
@@ -24565,7 +24565,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>IMG20250802084416</t>
+          <t>IMG20250802084423</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
@@ -24585,7 +24585,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>IMG20250802084423</t>
+          <t>IMG20250802084426</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
@@ -24605,7 +24605,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>IMG20250802084426</t>
+          <t>IMG20250802084430</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
@@ -24625,7 +24625,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>IMG20250802084430</t>
+          <t>IMG20250802084433</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -24645,7 +24645,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>IMG20250802084433</t>
+          <t>IMG20250802084439</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
@@ -24665,7 +24665,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>IMG20250802084439</t>
+          <t>IMG20250802084443</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
@@ -24685,7 +24685,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>IMG20250802084443</t>
+          <t>IMG20250802084448</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
@@ -24705,7 +24705,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>IMG20250802084448</t>
+          <t>IMG20250802084452</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
@@ -24725,7 +24725,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>IMG20250802084452</t>
+          <t>IMG20250802084502</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
@@ -24745,7 +24745,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>IMG20250802084502</t>
+          <t>IMG20250802084508</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
@@ -24765,7 +24765,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>IMG20250802084508</t>
+          <t>IMG20250802084526</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
@@ -24785,7 +24785,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>IMG20250802084526</t>
+          <t>IMG20250802084533</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
@@ -24805,7 +24805,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>IMG20250802084533</t>
+          <t>IMG20250802084537</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
@@ -24825,7 +24825,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>IMG20250802084537</t>
+          <t>IMG20250802084602</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
@@ -24845,7 +24845,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>IMG20250802084602</t>
+          <t>IMG20250802084608</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
@@ -24865,7 +24865,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>IMG20250802084608</t>
+          <t>IMG20250802084612</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
@@ -24885,7 +24885,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>IMG20250802084612</t>
+          <t>IMG20250802085745</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
@@ -24905,7 +24905,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>IMG20250802085745</t>
+          <t>IMG20250802085749</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
@@ -24925,7 +24925,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>IMG20250802085749</t>
+          <t>IMG20250802085753</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
@@ -24945,17 +24945,17 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>IMG20250802085753</t>
+          <t>IMG20250802085804</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Mites</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
@@ -24965,7 +24965,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>IMG20250802085804</t>
+          <t>IMG20250802085816</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
@@ -24975,7 +24975,7 @@
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
@@ -24985,7 +24985,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>IMG20250802085816</t>
+          <t>IMG20250802085835</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
@@ -24995,7 +24995,7 @@
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
@@ -25005,7 +25005,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>IMG20250802085835</t>
+          <t>IMG20250802085915</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
@@ -25015,7 +25015,7 @@
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
@@ -25025,7 +25025,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>IMG20250802085915</t>
+          <t>IMG20250802085922</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
@@ -25035,7 +25035,7 @@
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
@@ -25045,7 +25045,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>IMG20250802085922</t>
+          <t>IMG20250802085946</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
@@ -25055,7 +25055,7 @@
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
@@ -25065,7 +25065,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>IMG20250802085946</t>
+          <t>IMG20250802085951</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
@@ -25075,7 +25075,7 @@
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
@@ -25085,7 +25085,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>IMG20250802085951</t>
+          <t>IMG20250802085955</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
@@ -25095,7 +25095,7 @@
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr"/>
@@ -25105,7 +25105,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>IMG20250802085955</t>
+          <t>IMG20250802090002</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
@@ -25115,7 +25115,7 @@
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
@@ -25125,7 +25125,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>IMG20250802090002</t>
+          <t>IMG20250802090005</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
@@ -25135,7 +25135,7 @@
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
@@ -25145,7 +25145,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>IMG20250802090005</t>
+          <t>IMG20250802090013</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
@@ -25155,7 +25155,7 @@
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
@@ -25165,7 +25165,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>IMG20250802090013</t>
+          <t>IMG20250802090021</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
@@ -25175,7 +25175,7 @@
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
@@ -25185,7 +25185,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>IMG20250802090021</t>
+          <t>IMG20250802090024</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
@@ -25195,7 +25195,7 @@
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
@@ -25205,7 +25205,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>IMG20250802090024</t>
+          <t>IMG20250802090027</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
@@ -25215,7 +25215,7 @@
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
@@ -25225,7 +25225,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>IMG20250802090027</t>
+          <t>IMG20250802090037</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
@@ -25235,7 +25235,7 @@
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
@@ -25245,7 +25245,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>IMG20250802090037</t>
+          <t>IMG20250802090109</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
@@ -25255,7 +25255,7 @@
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
@@ -25265,7 +25265,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>IMG20250802090109</t>
+          <t>IMG20250802090154</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
@@ -25275,7 +25275,7 @@
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1240" t="inlineStr"/>
@@ -25285,7 +25285,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>IMG20250802090154</t>
+          <t>IMG20250802090200</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
@@ -25295,7 +25295,7 @@
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr"/>
@@ -25305,7 +25305,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>IMG20250802090200</t>
+          <t>IMG20250802090220</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
@@ -25315,7 +25315,7 @@
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr"/>
@@ -25325,17 +25325,17 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>IMG20250802090220</t>
+          <t>IMG20250802090225</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Borer</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr"/>
@@ -25345,7 +25345,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>IMG20250802090225</t>
+          <t>IMG20250802090229</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
@@ -25365,17 +25365,17 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>IMG20250802090229</t>
+          <t>IMG20250802090344</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Borer</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr"/>
@@ -25385,7 +25385,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>IMG20250802090344</t>
+          <t>IMG20250802090351</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
@@ -25395,7 +25395,7 @@
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr"/>
@@ -25405,7 +25405,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>IMG20250802090351</t>
+          <t>IMG20250802090357</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
@@ -25415,7 +25415,7 @@
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr"/>
@@ -25425,7 +25425,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>IMG20250802090357</t>
+          <t>IMG20250802090406</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
@@ -25435,7 +25435,7 @@
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr"/>
@@ -25445,7 +25445,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>IMG20250802090406</t>
+          <t>IMG20250802090426</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
@@ -25455,7 +25455,7 @@
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>IMG20250802090426</t>
+          <t>IMG20250802090522</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
@@ -25475,7 +25475,7 @@
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr"/>
@@ -25485,7 +25485,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>IMG20250802090522</t>
+          <t>IMG20250802090528</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
@@ -25495,7 +25495,7 @@
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr"/>
@@ -25505,7 +25505,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>IMG20250802090528</t>
+          <t>IMG20250802090536</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
@@ -25515,7 +25515,7 @@
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D1252" t="inlineStr"/>
@@ -25525,17 +25525,17 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>IMG20250802090536</t>
+          <t>IMG20250802090559</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Borer</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr"/>
@@ -25545,7 +25545,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>IMG20250802090559</t>
+          <t>IMG20250802090606</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
@@ -25565,17 +25565,17 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>IMG20250802090606</t>
+          <t>IMG20250802090620</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Borer</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr"/>
@@ -25585,7 +25585,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>IMG20250802090620</t>
+          <t>IMG20250802100527</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
@@ -25595,7 +25595,7 @@
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr"/>
@@ -25605,7 +25605,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>IMG20250802100527</t>
+          <t>IMG20250802100537</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
@@ -25615,7 +25615,7 @@
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr"/>
@@ -25625,7 +25625,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>IMG20250802100537</t>
+          <t>IMG20250802100540</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
@@ -25635,7 +25635,7 @@
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr"/>
@@ -25645,7 +25645,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>IMG20250802100540</t>
+          <t>IMG20250802100551</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
@@ -25655,7 +25655,7 @@
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr"/>
@@ -25665,7 +25665,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>IMG20250802100551</t>
+          <t>IMG20250802100554</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
@@ -25675,7 +25675,7 @@
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr"/>
@@ -25685,7 +25685,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>IMG20250802100554</t>
+          <t>IMG20250802100557</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
@@ -25695,7 +25695,7 @@
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr"/>
@@ -25705,7 +25705,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>IMG20250802100557</t>
+          <t>IMG20250802100610</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr">
@@ -25715,7 +25715,7 @@
       </c>
       <c r="C1262" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1262" t="inlineStr"/>
@@ -25725,7 +25725,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>IMG20250802100610</t>
+          <t>IMG20250802100637</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
@@ -25735,7 +25735,7 @@
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr"/>
@@ -25745,7 +25745,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>IMG20250802100637</t>
+          <t>IMG20250802100642</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
@@ -25755,7 +25755,7 @@
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1264" t="inlineStr"/>
@@ -25765,7 +25765,7 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>IMG20250802100642</t>
+          <t>IMG20250802100702</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
@@ -25775,7 +25775,7 @@
       </c>
       <c r="C1265" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1265" t="inlineStr"/>
@@ -25785,7 +25785,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>IMG20250802100702</t>
+          <t>IMG20250802100705</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr">
@@ -25795,7 +25795,7 @@
       </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1266" t="inlineStr"/>
@@ -25805,7 +25805,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>IMG20250802100705</t>
+          <t>IMG20250802100709</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
@@ -25815,7 +25815,7 @@
       </c>
       <c r="C1267" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1267" t="inlineStr"/>
@@ -25825,7 +25825,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>IMG20250802100709</t>
+          <t>IMG20250802100728</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
@@ -25835,7 +25835,7 @@
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1268" t="inlineStr"/>
@@ -25845,7 +25845,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>IMG20250802100728</t>
+          <t>IMG20250802100740</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
@@ -25855,7 +25855,7 @@
       </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1269" t="inlineStr"/>
@@ -25865,7 +25865,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>IMG20250802100740</t>
+          <t>IMG20250802100747</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
@@ -25875,7 +25875,7 @@
       </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1270" t="inlineStr"/>
@@ -25885,7 +25885,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>IMG20250802100747</t>
+          <t>IMG20250802100808</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
@@ -25895,7 +25895,7 @@
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1271" t="inlineStr"/>
@@ -25905,7 +25905,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>IMG20250802100808</t>
+          <t>IMG20250802100826</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
@@ -25915,7 +25915,7 @@
       </c>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1272" t="inlineStr"/>
@@ -25925,7 +25925,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>IMG20250802100826</t>
+          <t>IMG20250802100859</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
@@ -25935,7 +25935,7 @@
       </c>
       <c r="C1273" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1273" t="inlineStr"/>
@@ -25945,7 +25945,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>IMG20250802100859</t>
+          <t>IMG20250802100910</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
@@ -25955,7 +25955,7 @@
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D1274" t="inlineStr"/>
@@ -25965,7 +25965,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>IMG20250802100910</t>
+          <t>IMG20250802100932</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
@@ -25975,7 +25975,7 @@
       </c>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1275" t="inlineStr"/>
@@ -25985,7 +25985,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>IMG20250802100932</t>
+          <t>IMG20250802100948</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
@@ -25995,7 +25995,7 @@
       </c>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1276" t="inlineStr"/>
@@ -26005,7 +26005,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>IMG20250802100948</t>
+          <t>IMG20250802100957</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
@@ -26015,7 +26015,7 @@
       </c>
       <c r="C1277" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1277" t="inlineStr"/>
@@ -26025,7 +26025,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>IMG20250802100957</t>
+          <t>IMG20250802101013</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
@@ -26035,7 +26035,7 @@
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1278" t="inlineStr"/>
@@ -26045,7 +26045,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>IMG20250802101013</t>
+          <t>IMG20250802101037</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
@@ -26055,7 +26055,7 @@
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1279" t="inlineStr"/>
@@ -26065,7 +26065,7 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>IMG20250802101037</t>
+          <t>IMG20250802101051</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
@@ -26075,7 +26075,7 @@
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr"/>
@@ -26085,7 +26085,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>IMG20250802101051</t>
+          <t>IMG20250802101122</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
@@ -26095,7 +26095,7 @@
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr"/>
@@ -26105,7 +26105,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>IMG20250802101122</t>
+          <t>IMG20250802101146</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
@@ -26125,7 +26125,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>IMG20250802101146</t>
+          <t>IMG20250802101149</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
@@ -26145,7 +26145,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>IMG20250802101149</t>
+          <t>IMG20250802101210</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
@@ -26165,7 +26165,7 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>IMG20250802101210</t>
+          <t>IMG20250802101220</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
@@ -26185,7 +26185,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>IMG20250802101220</t>
+          <t>IMG20250802101332</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr">
@@ -26205,7 +26205,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>IMG20250802101332</t>
+          <t>IMG20250802101340</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr">
@@ -26225,7 +26225,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>IMG20250802101340</t>
+          <t>IMG20250802101347</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
@@ -26245,7 +26245,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>IMG20250802101347</t>
+          <t>IMG20250802101351</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr">
@@ -26265,7 +26265,7 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>IMG20250802101351</t>
+          <t>IMG20250802101404</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr">
@@ -26285,7 +26285,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>IMG20250802101404</t>
+          <t>IMG20250802101416</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr">
@@ -26305,7 +26305,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>IMG20250802101416</t>
+          <t>IMG20250802101419</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr">
@@ -26325,7 +26325,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>IMG20250802101419</t>
+          <t>IMG20250802101424</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr">
@@ -26345,7 +26345,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>IMG20250802101424</t>
+          <t>IMG20250802101438</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr">
@@ -26365,7 +26365,7 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>IMG20250802101438</t>
+          <t>IMG20250802101459</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr">
@@ -26385,7 +26385,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>IMG20250802101459</t>
+          <t>IMG20250802101509</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr">
@@ -26405,7 +26405,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>IMG20250802101509</t>
+          <t>IMG20250802101516</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr">
@@ -26425,7 +26425,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>IMG20250802101516</t>
+          <t>IMG20250802101524</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr">
@@ -26445,7 +26445,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>IMG20250802101524</t>
+          <t>IMG20250802101532</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
@@ -26465,7 +26465,7 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>IMG20250802101532</t>
+          <t>IMG20250802101539</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr">
@@ -26485,7 +26485,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>IMG20250802101539</t>
+          <t>IMG20250802101549</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr">
@@ -26505,17 +26505,17 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>IMG20250802101549</t>
+          <t>IMG20250802101557</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Canker</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1302" t="inlineStr"/>
@@ -26525,7 +26525,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>IMG20250802101557</t>
+          <t>IMG20250802101603</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
@@ -26545,17 +26545,17 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>IMG20250802101603</t>
+          <t>IMG20250802101618</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Canker</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Unprocessed</t>
         </is>
       </c>
       <c r="D1304" t="inlineStr"/>
@@ -26565,7 +26565,7 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>IMG20250802101618</t>
+          <t>IMG20250802101620</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
@@ -26585,7 +26585,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>IMG20250802101620</t>
+          <t>IMG20250802101622</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
@@ -26605,7 +26605,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>IMG20250802101622</t>
+          <t>IMG20250802101625</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
@@ -26625,7 +26625,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>IMG20250802101625</t>
+          <t>IMG20250802101647</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr">
@@ -26645,7 +26645,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>IMG20250802101647</t>
+          <t>IMG20250802101653</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
@@ -26665,7 +26665,7 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>IMG20250802101653</t>
+          <t>IMG20250802101710</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr">
@@ -26685,7 +26685,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>IMG20250802101710</t>
+          <t>IMG20250802101715</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr">
@@ -26705,7 +26705,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>IMG20250802101715</t>
+          <t>IMG20250802101724</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr">
@@ -26725,7 +26725,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>IMG20250802101724</t>
+          <t>IMG20250802101729</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr">
@@ -26745,7 +26745,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>IMG20250802101729</t>
+          <t>IMG20250802101734</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr">
@@ -26765,7 +26765,7 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>IMG20250802101734</t>
+          <t>IMG20250802101743</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr">
@@ -26785,7 +26785,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>IMG20250802101743</t>
+          <t>IMG20250802101752</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr">
@@ -26805,7 +26805,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>IMG20250802101752</t>
+          <t>IMG20250802101758</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr">
@@ -26825,7 +26825,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>IMG20250802101758</t>
+          <t>IMG20250802101807</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr">
@@ -26845,7 +26845,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>IMG20250802101807</t>
+          <t>IMG20250802101817</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr">
@@ -26865,7 +26865,7 @@
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>IMG20250802101817</t>
+          <t>IMG20250802101819</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr">
@@ -26885,7 +26885,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>IMG20250802101819</t>
+          <t>IMG20250802101821</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr">
@@ -26905,7 +26905,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>IMG20250802101821</t>
+          <t>IMG20250802101826</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr">
@@ -26925,7 +26925,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>IMG20250802101826</t>
+          <t>IMG20250802101835</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr">
@@ -26945,7 +26945,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>IMG20250802101835</t>
+          <t>IMG20250802101842</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr">
@@ -26965,7 +26965,7 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>IMG20250802101842</t>
+          <t>IMG20250802101844</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr">
@@ -26985,7 +26985,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>IMG20250802101844</t>
+          <t>IMG20250802101901</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr">
@@ -27005,7 +27005,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>IMG20250802101901</t>
+          <t>IMG20250802101905</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr">
@@ -27025,7 +27025,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>IMG20250802101905</t>
+          <t>IMG20250802101914</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr">
@@ -27045,7 +27045,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>IMG20250802101914</t>
+          <t>IMG20250802101917</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr">
@@ -27065,7 +27065,7 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>IMG20250802101917</t>
+          <t>IMG20250802101926</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr">
@@ -27085,7 +27085,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>IMG20250802101926</t>
+          <t>IMG20250802102006</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr">
@@ -27105,7 +27105,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>IMG20250802102006</t>
+          <t>IMG20250802102010</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr">
@@ -27125,7 +27125,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>IMG20250802102010</t>
+          <t>IMG20250802102014</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr">
@@ -27145,17 +27145,17 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>IMG20250802102014</t>
+          <t>IMG20250802102021</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Mites</t>
         </is>
       </c>
       <c r="C1334" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1334" t="inlineStr"/>
@@ -27165,7 +27165,7 @@
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>IMG20250802102021</t>
+          <t>IMG20250802102026</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr">
@@ -27185,7 +27185,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>IMG20250802102026</t>
+          <t>IMG20250802102032</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr">
@@ -27205,7 +27205,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>IMG20250802102032</t>
+          <t>IMG20250802102036</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr">
@@ -27225,7 +27225,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>IMG20250802102036</t>
+          <t>IMG20250802102041</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr">
@@ -27245,7 +27245,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>IMG20250802102041</t>
+          <t>IMG20250802102045</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr">
@@ -27265,17 +27265,17 @@
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>IMG20250802102045</t>
+          <t>IMG20250802102101</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Mites</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1340" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Unprocessed</t>
         </is>
       </c>
       <c r="D1340" t="inlineStr"/>
@@ -27285,7 +27285,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>IMG20250802102101</t>
+          <t>IMG20250802102124</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr">
@@ -27305,7 +27305,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>IMG20250802102124</t>
+          <t>IMG20250802102131</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
@@ -27325,7 +27325,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>IMG20250802102131</t>
+          <t>IMG20250802102138</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr">
@@ -27345,7 +27345,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>IMG20250802102138</t>
+          <t>IMG20250802102213</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr">
@@ -27365,7 +27365,7 @@
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>IMG20250802102213</t>
+          <t>IMG20250802102216</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr">
@@ -27385,7 +27385,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>IMG20250802102216</t>
+          <t>IMG20250802102254</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr">
@@ -27405,7 +27405,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>IMG20250802102254</t>
+          <t>IMG20250802102303</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr">
@@ -27425,7 +27425,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>IMG20250802102303</t>
+          <t>IMG20250802102309</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr">
@@ -27445,7 +27445,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>IMG20250802102309</t>
+          <t>IMG20250802102313</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr">
@@ -27465,7 +27465,7 @@
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>IMG20250802102313</t>
+          <t>IMG20250802102326</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr">
@@ -27485,7 +27485,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>IMG20250802102326</t>
+          <t>IMG20250802102332</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr">
@@ -27505,7 +27505,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>IMG20250802102332</t>
+          <t>IMG20250802102339</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr">
@@ -27525,7 +27525,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>IMG20250802102339</t>
+          <t>IMG20250802102356</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr">
@@ -27545,7 +27545,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>IMG20250802102356</t>
+          <t>IMG20250802102401</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr">
@@ -27565,7 +27565,7 @@
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>IMG20250802102401</t>
+          <t>IMG20250802102408</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr">
@@ -27585,7 +27585,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>IMG20250802102408</t>
+          <t>IMG20250802102412</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr">
@@ -27605,7 +27605,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>IMG20250802102412</t>
+          <t>IMG20250802102500</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr">
@@ -27625,7 +27625,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>IMG20250802102500</t>
+          <t>IMG20250802102506</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr">
@@ -27645,7 +27645,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>IMG20250802102506</t>
+          <t>IMG20250802102548</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr">
@@ -27665,7 +27665,7 @@
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
-          <t>IMG20250802102548</t>
+          <t>IMG20250802102612</t>
         </is>
       </c>
       <c r="B1360" t="inlineStr">
@@ -27685,7 +27685,7 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>IMG20250802102612</t>
+          <t>IMG20250802102623</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr">
@@ -27705,7 +27705,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>IMG20250802102623</t>
+          <t>IMG20250802102655</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr">
@@ -27725,7 +27725,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>IMG20250802102655</t>
+          <t>IMG20250802102949</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr">
@@ -27745,7 +27745,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>IMG20250802102949</t>
+          <t>IMG20250802102959</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr">
@@ -27765,7 +27765,7 @@
     <row r="1365">
       <c r="A1365" t="inlineStr">
         <is>
-          <t>IMG20250802102959</t>
+          <t>IMG20250802103041</t>
         </is>
       </c>
       <c r="B1365" t="inlineStr">
@@ -27785,7 +27785,7 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>IMG20250802103041</t>
+          <t>IMG20250802103054</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr">
@@ -27805,7 +27805,7 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>IMG20250802103054</t>
+          <t>IMG20250802103102</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr">
@@ -27825,7 +27825,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>IMG20250802103102</t>
+          <t>IMG20250802103123</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr">
@@ -27845,7 +27845,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>IMG20250802103123</t>
+          <t>IMG20250802103133</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr">
@@ -27865,7 +27865,7 @@
     <row r="1370">
       <c r="A1370" t="inlineStr">
         <is>
-          <t>IMG20250802103133</t>
+          <t>IMG20250802103209</t>
         </is>
       </c>
       <c r="B1370" t="inlineStr">
@@ -27885,7 +27885,7 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>IMG20250802103209</t>
+          <t>IMG20250802103227</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr">
@@ -27905,7 +27905,7 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>IMG20250802103227</t>
+          <t>IMG20250802103241</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr">
@@ -27925,7 +27925,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>IMG20250802103241</t>
+          <t>IMG20250802103457</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr">
@@ -27945,7 +27945,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>IMG20250802103457</t>
+          <t>IMG20250802103504</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr">
@@ -27965,7 +27965,7 @@
     <row r="1375">
       <c r="A1375" t="inlineStr">
         <is>
-          <t>IMG20250802103504</t>
+          <t>IMG20250802103510</t>
         </is>
       </c>
       <c r="B1375" t="inlineStr">
@@ -27985,7 +27985,7 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>IMG20250802103510</t>
+          <t>IMG20250802103523</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr">
@@ -28005,7 +28005,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>IMG20250802103523</t>
+          <t>IMG20250802103529</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr">
@@ -28025,7 +28025,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>IMG20250802103529</t>
+          <t>IMG20250802103536</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr">
@@ -28045,7 +28045,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>IMG20250802103536</t>
+          <t>IMG20250802103539</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr">
@@ -28065,7 +28065,7 @@
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>IMG20250802103539</t>
+          <t>IMG20250802103542</t>
         </is>
       </c>
       <c r="B1380" t="inlineStr">
@@ -28085,7 +28085,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>IMG20250802103542</t>
+          <t>IMG20250802103546</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr">
@@ -28105,7 +28105,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>IMG20250802103546</t>
+          <t>IMG20250802103558</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr">
@@ -28125,12 +28125,12 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>IMG20250802103558</t>
+          <t>IMG20250802103606</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr">
@@ -28145,12 +28145,12 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>IMG20250802103606</t>
+          <t>IMG20250802103615</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
@@ -28165,7 +28165,7 @@
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>IMG20250802103615</t>
+          <t>IMG20250802103624</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
@@ -28185,7 +28185,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>IMG20250802103624</t>
+          <t>IMG20250802103634</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr">
@@ -28205,7 +28205,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>IMG20250802103634</t>
+          <t>IMG20250802103649</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
@@ -28225,7 +28225,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>IMG20250802103649</t>
+          <t>IMG20250802103657</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
@@ -28245,7 +28245,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>IMG20250802103657</t>
+          <t>IMG20250802103702</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr">
@@ -28265,7 +28265,7 @@
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>IMG20250802103702</t>
+          <t>IMG20250802103706</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
@@ -28285,7 +28285,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>IMG20250802103706</t>
+          <t>IMG20250802103717</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
@@ -28305,7 +28305,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>IMG20250802103717</t>
+          <t>IMG20250802103751</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
@@ -28325,7 +28325,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>IMG20250802103751</t>
+          <t>IMG20250802103756</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
@@ -28345,7 +28345,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>IMG20250802103756</t>
+          <t>IMG20250802103819</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
@@ -28365,7 +28365,7 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>IMG20250802103819</t>
+          <t>IMG20250802103832</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
@@ -28385,7 +28385,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>IMG20250802103832</t>
+          <t>IMG20250802103837</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
@@ -28405,7 +28405,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>IMG20250802103837</t>
+          <t>IMG20250802103842</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
@@ -28425,7 +28425,7 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>IMG20250802103842</t>
+          <t>IMG20250802103852</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
@@ -28445,7 +28445,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>IMG20250802103852</t>
+          <t>IMG20250802103909</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr">
@@ -28465,7 +28465,7 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>IMG20250802103909</t>
+          <t>IMG20250802103912</t>
         </is>
       </c>
       <c r="B1400" t="inlineStr">
@@ -28485,7 +28485,7 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>IMG20250802103912</t>
+          <t>IMG20250802103919</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr">
@@ -28505,7 +28505,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>IMG20250802103919</t>
+          <t>IMG20250802103926</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
@@ -28525,7 +28525,7 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>IMG20250802103926</t>
+          <t>IMG20250802103930</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr">
@@ -28545,7 +28545,7 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>IMG20250802103930</t>
+          <t>IMG20250802103947</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr">
@@ -28565,7 +28565,7 @@
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>IMG20250802103947</t>
+          <t>IMG20250802104000</t>
         </is>
       </c>
       <c r="B1405" t="inlineStr">
@@ -28585,7 +28585,7 @@
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>IMG20250802104000</t>
+          <t>IMG20250802104010</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
@@ -28605,7 +28605,7 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>IMG20250802104010</t>
+          <t>IMG20250802104031</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
@@ -28625,7 +28625,7 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>IMG20250802104031</t>
+          <t>IMG20250802104040</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
@@ -28645,7 +28645,7 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>IMG20250802104040</t>
+          <t>IMG20250802104047</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr">
@@ -28665,7 +28665,7 @@
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>IMG20250802104047</t>
+          <t>IMG20250802104051</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
@@ -28685,7 +28685,7 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>IMG20250802104051</t>
+          <t>IMG20250802104105</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr">
@@ -28705,7 +28705,7 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>IMG20250802104105</t>
+          <t>IMG20250802104108</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr">
@@ -28725,7 +28725,7 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>IMG20250802104108</t>
+          <t>IMG20250802104118</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
@@ -28745,7 +28745,7 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>IMG20250802104118</t>
+          <t>IMG20250802104139</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
@@ -28765,7 +28765,7 @@
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>IMG20250802104139</t>
+          <t>IMG20250802104207</t>
         </is>
       </c>
       <c r="B1415" t="inlineStr">
@@ -28785,7 +28785,7 @@
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>IMG20250802104207</t>
+          <t>IMG20250802104222</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr">
@@ -28805,7 +28805,7 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>IMG20250802104222</t>
+          <t>IMG20250802104245</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr">
@@ -28825,7 +28825,7 @@
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>IMG20250802104245</t>
+          <t>IMG20250802104304</t>
         </is>
       </c>
       <c r="B1418" t="inlineStr">
@@ -28845,7 +28845,7 @@
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>IMG20250802104304</t>
+          <t>IMG20250802104329</t>
         </is>
       </c>
       <c r="B1419" t="inlineStr">
@@ -28865,7 +28865,7 @@
     <row r="1420">
       <c r="A1420" t="inlineStr">
         <is>
-          <t>IMG20250802104329</t>
+          <t>IMG20250802104348</t>
         </is>
       </c>
       <c r="B1420" t="inlineStr">
@@ -28885,17 +28885,17 @@
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>IMG20250802104348</t>
+          <t>IMG20250802104351</t>
         </is>
       </c>
       <c r="B1421" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Canker</t>
         </is>
       </c>
       <c r="C1421" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1421" t="inlineStr"/>
@@ -28905,17 +28905,17 @@
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>IMG20250802104351</t>
+          <t>IMG20250802104357</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>Canker</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1422" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Unprocessed</t>
         </is>
       </c>
       <c r="D1422" t="inlineStr"/>
@@ -28925,7 +28925,7 @@
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>IMG20250802104357</t>
+          <t>IMG20250802104406</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr">
@@ -28945,7 +28945,7 @@
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>IMG20250802104406</t>
+          <t>IMG20250802104411</t>
         </is>
       </c>
       <c r="B1424" t="inlineStr">
@@ -28965,7 +28965,7 @@
     <row r="1425">
       <c r="A1425" t="inlineStr">
         <is>
-          <t>IMG20250802104411</t>
+          <t>IMG20250802104434</t>
         </is>
       </c>
       <c r="B1425" t="inlineStr">
@@ -28985,7 +28985,7 @@
     <row r="1426">
       <c r="A1426" t="inlineStr">
         <is>
-          <t>IMG20250802104434</t>
+          <t>IMG20250802104459</t>
         </is>
       </c>
       <c r="B1426" t="inlineStr">
@@ -29005,7 +29005,7 @@
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>IMG20250802104459</t>
+          <t>IMG20250802104513</t>
         </is>
       </c>
       <c r="B1427" t="inlineStr">
@@ -29025,7 +29025,7 @@
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>IMG20250802104513</t>
+          <t>IMG20250802104528</t>
         </is>
       </c>
       <c r="B1428" t="inlineStr">
@@ -29045,7 +29045,7 @@
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>IMG20250802104528</t>
+          <t>IMG20250802104540</t>
         </is>
       </c>
       <c r="B1429" t="inlineStr">
@@ -29065,7 +29065,7 @@
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>IMG20250802104540</t>
+          <t>IMG20250802104550</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
@@ -29085,7 +29085,7 @@
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>IMG20250802104550</t>
+          <t>IMG20250802104641</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
@@ -29105,7 +29105,7 @@
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>IMG20250802104641</t>
+          <t>IMG20250802104708</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
@@ -29125,7 +29125,7 @@
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>IMG20250802104708</t>
+          <t>IMG20250802104808</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
@@ -29145,17 +29145,17 @@
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>IMG20250802104808</t>
+          <t>IMG20250802104856</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Anthracnose</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
@@ -29165,7 +29165,7 @@
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>IMG20250802104856</t>
+          <t>IMG20250802104900</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
@@ -29185,7 +29185,7 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>IMG20250802104900</t>
+          <t>IMG20250802104905</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
@@ -29205,17 +29205,17 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>IMG20250802104905</t>
+          <t>IMG20250802104914</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>Anthracnose</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>Processed</t>
+          <t>Unprocessed</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
@@ -29225,7 +29225,7 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>IMG20250802104914</t>
+          <t>IMG20250802104918</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
@@ -29245,7 +29245,7 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>IMG20250802104918</t>
+          <t>IMG20250802104926</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
@@ -29265,7 +29265,7 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>IMG20250802104926</t>
+          <t>IMG20250802105332</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
@@ -29285,7 +29285,7 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>IMG20250802105332</t>
+          <t>IMG20250802105351</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
@@ -29305,7 +29305,7 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>IMG20250802105351</t>
+          <t>IMG20250802105431</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
@@ -29325,7 +29325,7 @@
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>IMG20250802105431</t>
+          <t>IMG20250802105701</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
@@ -29345,7 +29345,7 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>IMG20250802105701</t>
+          <t>IMG20250802105706</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
@@ -29365,7 +29365,7 @@
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>IMG20250802105706</t>
+          <t>IMG20250802105712</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
@@ -29385,7 +29385,7 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>IMG20250802105712</t>
+          <t>IMG20250802105732</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
@@ -29405,7 +29405,7 @@
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>IMG20250802105732</t>
+          <t>IMG20250802105816</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
@@ -29425,7 +29425,7 @@
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>IMG20250802105816</t>
+          <t>IMG20250802105823</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
@@ -29445,7 +29445,7 @@
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>IMG20250802105823</t>
+          <t>IMG20250802105835</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
@@ -29465,7 +29465,7 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>IMG20250802105835</t>
+          <t>IMG20250802105845</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
@@ -29485,7 +29485,7 @@
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>IMG20250802105845</t>
+          <t>IMG20250802105906</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
@@ -29505,7 +29505,7 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>IMG20250802105906</t>
+          <t>IMG20250802105933</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
@@ -29525,7 +29525,7 @@
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>IMG20250802105933</t>
+          <t>IMG20250802105956</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
@@ -29545,7 +29545,7 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>IMG20250802105956</t>
+          <t>IMG20250802110026</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
@@ -29565,7 +29565,7 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>IMG20250802110026</t>
+          <t>IMG20250802110038</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
@@ -29585,7 +29585,7 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>IMG20250802110038</t>
+          <t>IMG20250802110049</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
@@ -29605,7 +29605,7 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>IMG20250802110049</t>
+          <t>IMG20250802110117</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
@@ -29625,7 +29625,7 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>IMG20250802110117</t>
+          <t>IMG20250802110121</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
@@ -29645,7 +29645,7 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>IMG20250802110121</t>
+          <t>IMG20250802110138</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
@@ -29665,7 +29665,7 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>IMG20250802110138</t>
+          <t>IMG20250802110155</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
@@ -29685,7 +29685,7 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>IMG20250802110155</t>
+          <t>IMG20250802110211</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
@@ -29705,7 +29705,7 @@
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>IMG20250802110211</t>
+          <t>IMG20250802110229</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
@@ -29725,7 +29725,7 @@
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>IMG20250802110229</t>
+          <t>IMG20250802110242</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
@@ -29745,7 +29745,7 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>IMG20250802110242</t>
+          <t>IMG20250802110249</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
@@ -29765,7 +29765,7 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>IMG20250802110249</t>
+          <t>IMG20250802110345</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
@@ -29785,7 +29785,7 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>IMG20250802110345</t>
+          <t>IMG20250802110349</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
@@ -29805,7 +29805,7 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>IMG20250802110349</t>
+          <t>IMG20250802110411</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
@@ -29825,7 +29825,7 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>IMG20250802110411</t>
+          <t>IMG20250802110426</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
@@ -29845,17 +29845,17 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>IMG20250802110426</t>
+          <t>IMG20250802110536</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Anthracnose</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
@@ -29865,7 +29865,7 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>IMG20250802110536</t>
+          <t>IMG20250802110540</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
@@ -29885,7 +29885,7 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>IMG20250802110540</t>
+          <t>IMG20250802110544</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
@@ -29905,7 +29905,7 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>IMG20250802110544</t>
+          <t>IMG20250802110547</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
@@ -29925,7 +29925,7 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>IMG20250802110547</t>
+          <t>IMG20250802110557</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
@@ -29935,7 +29935,7 @@
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
@@ -29945,7 +29945,7 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>IMG20250802110557</t>
+          <t>IMG20250802110608</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
@@ -29955,7 +29955,7 @@
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Processed</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
@@ -29965,17 +29965,17 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>IMG20250802110608</t>
+          <t>IMG20250802110612</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Anthracnose</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Processed</t>
+          <t>Unprocessed</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
@@ -29985,7 +29985,7 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>IMG20250802110612</t>
+          <t>IMG20250802110625</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
@@ -30005,17 +30005,17 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>IMG20250802110625</t>
+          <t>IMG20250802110651</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Anthracnose</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
@@ -30025,17 +30025,17 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>IMG20250802110651</t>
+          <t>IMG20250802110729</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Anthracnose</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Unprocessed</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
@@ -30045,7 +30045,7 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>IMG20250802110729</t>
+          <t>IMG20250802110733</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
@@ -30065,7 +30065,7 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>IMG20250802110733</t>
+          <t>IMG20250802110736</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
@@ -30085,7 +30085,7 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>IMG20250802110736</t>
+          <t>IMG20250802110816</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
@@ -30105,7 +30105,7 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>IMG20250802110816</t>
+          <t>IMG20250802110824</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
@@ -30125,7 +30125,7 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>IMG20250802110824</t>
+          <t>IMG20250802110829</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
@@ -30145,7 +30145,7 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>IMG20250802110829</t>
+          <t>IMG20250802110834</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
@@ -30165,7 +30165,7 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>IMG20250802110834</t>
+          <t>IMG20250802110840</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
@@ -30185,7 +30185,7 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>IMG20250802110840</t>
+          <t>IMG20250802110856</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
@@ -30205,7 +30205,7 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>IMG20250802110856</t>
+          <t>IMG20250802110900</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
@@ -30225,7 +30225,7 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>IMG20250802110900</t>
+          <t>IMG20250802110905</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
@@ -30245,7 +30245,7 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>IMG20250802110905</t>
+          <t>IMG20250802110919</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
@@ -30265,7 +30265,7 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>IMG20250802110919</t>
+          <t>IMG20250802110938</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
@@ -30285,17 +30285,17 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>IMG20250802110938</t>
+          <t>IMG20250802110953</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Canker</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
@@ -30305,7 +30305,7 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>IMG20250802110953</t>
+          <t>IMG20250802111001</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
@@ -30325,17 +30325,17 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>IMG20250802111001</t>
+          <t>IMG20250802111010</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Canker</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Unprocessed</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
@@ -30345,7 +30345,7 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>IMG20250802111010</t>
+          <t>IMG20250802111019</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
@@ -30365,7 +30365,7 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>IMG20250802111019</t>
+          <t>IMG20250802111030</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
@@ -30385,7 +30385,7 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>IMG20250802111030</t>
+          <t>IMG20250802111035</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
@@ -30405,7 +30405,7 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>IMG20250802111035</t>
+          <t>IMG20250802111040</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
@@ -30425,7 +30425,7 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>IMG20250802111040</t>
+          <t>IMG20250802111055</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
@@ -30445,7 +30445,7 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>IMG20250802111055</t>
+          <t>IMG20250802111100</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
@@ -30465,7 +30465,7 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>IMG20250802111100</t>
+          <t>IMG20250802111139</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
@@ -30485,7 +30485,7 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>IMG20250802111139</t>
+          <t>IMG20250802111146</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
@@ -30505,7 +30505,7 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>IMG20250802111146</t>
+          <t>IMG20250802111202</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -30525,7 +30525,7 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>IMG20250802111202</t>
+          <t>IMG20250802111238</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -30545,7 +30545,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>IMG20250802111238</t>
+          <t>IMG20250802111258</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -30565,7 +30565,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>IMG20250802111258</t>
+          <t>IMG20250802111303</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -30585,7 +30585,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>IMG20250802111303</t>
+          <t>IMG20250802111330</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -30605,7 +30605,7 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>IMG20250802111330</t>
+          <t>IMG20250802111335</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
@@ -30625,17 +30625,17 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>IMG20250802111335</t>
+          <t>IMG20250802111349</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Borer</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
@@ -30645,17 +30645,17 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>IMG20250802111349</t>
+          <t>IMG20250802111718</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>Borer</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Unprocessed</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
@@ -30665,7 +30665,7 @@
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>IMG20250802111718</t>
+          <t>IMG20250802111723</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
@@ -30685,7 +30685,7 @@
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>IMG20250802111723</t>
+          <t>IMG20250802111727</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
@@ -30705,7 +30705,7 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>IMG20250802111727</t>
+          <t>IMG20250802111751</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
@@ -30725,7 +30725,7 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>IMG20250802111751</t>
+          <t>IMG20250802111756</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
@@ -30745,7 +30745,7 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>IMG20250802111756</t>
+          <t>IMG20250802111831</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
@@ -30765,7 +30765,7 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>IMG20250802111831</t>
+          <t>IMG20250802111836</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
@@ -30785,7 +30785,7 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>IMG20250802111836</t>
+          <t>IMG20250802111842</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
@@ -30805,7 +30805,7 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>IMG20250802111842</t>
+          <t>IMG20250802111846</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
@@ -30825,7 +30825,7 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>IMG20250802111846</t>
+          <t>IMG20250802111915</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
@@ -30845,7 +30845,7 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>IMG20250802111915</t>
+          <t>IMG20250802111924</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
@@ -30865,7 +30865,7 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>IMG20250802111924</t>
+          <t>IMG20250802111929</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
@@ -30885,7 +30885,7 @@
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>IMG20250802111929</t>
+          <t>IMG20250802111934</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
@@ -30905,7 +30905,7 @@
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>IMG20250802111934</t>
+          <t>IMG20250802112002</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
@@ -30925,7 +30925,7 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>IMG20250802112002</t>
+          <t>IMG20250802112014</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
@@ -30945,7 +30945,7 @@
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>IMG20250802112014</t>
+          <t>IMG20250802112039</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
@@ -30965,17 +30965,17 @@
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>IMG20250802112039</t>
+          <t>IMG20250802112120</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>Unlabeled</t>
+          <t>Mites</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>Unprocessed</t>
+          <t>Extracted</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
@@ -30985,7 +30985,7 @@
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>IMG20250802112120</t>
+          <t>IMG20250802112157</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
@@ -31005,7 +31005,7 @@
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>IMG20250802112157</t>
+          <t>IMG20250802112202</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
@@ -31025,7 +31025,7 @@
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>IMG20250802112202</t>
+          <t>IMG20250802112206</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
@@ -31045,7 +31045,7 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>IMG20250802112206</t>
+          <t>IMG20250802112212</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
@@ -31065,7 +31065,7 @@
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>IMG20250802112212</t>
+          <t>IMG20250802112220</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
@@ -31085,7 +31085,7 @@
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>IMG20250802112220</t>
+          <t>IMG20250802112224</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
@@ -31105,7 +31105,7 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>IMG20250802112224</t>
+          <t>IMG20250802112227</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
@@ -31125,7 +31125,7 @@
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>IMG20250802112227</t>
+          <t>IMG20250802112234</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
@@ -31145,17 +31145,17 @@
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>IMG20250802112234</t>
+          <t>IMG20250802112257</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>Mites</t>
+          <t>Unlabeled</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>Extracted</t>
+          <t>Unprocessed</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
@@ -31165,7 +31165,7 @@
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>IMG20250802112257</t>
+          <t>IMG20250802112324</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
@@ -31185,7 +31185,7 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>IMG20250802112324</t>
+          <t>IMG20250802112352</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
@@ -31205,7 +31205,7 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>IMG20250802112352</t>
+          <t>IMG20250802112410</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
@@ -31225,7 +31225,7 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>IMG20250802112410</t>
+          <t>IMG20250802112428</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
@@ -31245,7 +31245,7 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>IMG20250802112428</t>
+          <t>IMG20250802112449</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
@@ -31265,7 +31265,7 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>IMG20250802112449</t>
+          <t>IMG20250802112455</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
@@ -31285,7 +31285,7 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>IMG20250802112455</t>
+          <t>IMG20250802112505</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
@@ -31305,7 +31305,7 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>IMG20250802112505</t>
+          <t>IMG20250802112523</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
@@ -31325,7 +31325,7 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>IMG20250802112523</t>
+          <t>IMG20250802112538</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
@@ -31345,7 +31345,7 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>IMG20250802112538</t>
+          <t>IMG20250802112553</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
@@ -31365,7 +31365,7 @@
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>IMG20250802112553</t>
+          <t>IMG20250802112602</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
@@ -31385,7 +31385,7 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>IMG20250802112602</t>
+          <t>IMG20250802112631</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
@@ -31405,7 +31405,7 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>IMG20250802112631</t>
+          <t>IMG20250802112639</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
@@ -31425,7 +31425,7 @@
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>IMG20250802112639</t>
+          <t>IMG20250802112648</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
@@ -31445,7 +31445,7 @@
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>IMG20250802112648</t>
+          <t>IMG20250802112710</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
@@ -31465,7 +31465,7 @@
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>IMG20250802112710</t>
+          <t>IMG20250802112715</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
@@ -31485,7 +31485,7 @@
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>IMG20250802112715</t>
+          <t>IMG20250802112731</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
@@ -31505,7 +31505,7 @@
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>IMG20250802112731</t>
+          <t>IMG20250802112734</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
@@ -31525,7 +31525,7 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>IMG20250802112734</t>
+          <t>IMG20250802112806</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
@@ -31545,7 +31545,7 @@
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>IMG20250802112806</t>
+          <t>IMG20250802112811</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
@@ -31565,7 +31565,7 @@
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>IMG20250802112811</t>
+          <t>IMG20250802112815</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
@@ -31585,7 +31585,7 @@
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>IMG20250802112815</t>
+          <t>IMG20250802112821</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
@@ -31605,7 +31605,7 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>IMG20250802112821</t>
+          <t>IMG20250802112830</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
@@ -31625,7 +31625,7 @@
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>IMG20250802112830</t>
+          <t>IMG20250802112841</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
@@ -31645,7 +31645,7 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>IMG20250802112841</t>
+          <t>IMG20250802112901</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
@@ -31665,7 +31665,7 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>IMG20250802112901</t>
+          <t>IMG20250802112910</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
@@ -31685,7 +31685,7 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>IMG20250802112910</t>
+          <t>IMG20250802112920</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
@@ -31701,26 +31701,6 @@
       <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="inlineStr"/>
       <c r="F1561" t="inlineStr"/>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
-        <is>
-          <t>IMG20250802112920</t>
-        </is>
-      </c>
-      <c r="B1562" t="inlineStr">
-        <is>
-          <t>Unlabeled</t>
-        </is>
-      </c>
-      <c r="C1562" t="inlineStr">
-        <is>
-          <t>Unprocessed</t>
-        </is>
-      </c>
-      <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr"/>
-      <c r="F1562" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
